--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="878">
   <si>
     <t>anchor score</t>
   </si>
@@ -247,529 +247,529 @@
     <t>well</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>coming</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>podcast</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>coming</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3016,7 +3016,7 @@
         <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4">
         <v>0.896551724137931</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6">
         <v>0.889763779527559</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>0.8642857142857143</v>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -3445,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K10">
         <v>0.8269230769230769</v>
@@ -3495,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K11">
         <v>0.8031914893617021</v>
@@ -3545,28 +3545,28 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.7665198237885462</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3595,28 +3595,28 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3645,28 +3645,28 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="K14">
-        <v>0.7368421052631579</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3695,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15">
         <v>0.7121212121212122</v>
@@ -3745,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K16">
         <v>0.7111111111111111</v>
@@ -3795,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K17">
         <v>0.704225352112676</v>
@@ -3845,28 +3845,28 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="K18">
-        <v>0.6953846153846154</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L18">
         <v>226</v>
       </c>
       <c r="M18">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3895,7 +3895,7 @@
         <v>55</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K19">
         <v>0.6588235294117647</v>
@@ -3995,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K21">
         <v>0.5967741935483871</v>
@@ -4095,7 +4095,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K23">
         <v>0.5</v>
@@ -4195,7 +4195,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K25">
         <v>0.4936708860759494</v>
@@ -4245,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K26">
         <v>0.4761904761904762</v>
@@ -4295,7 +4295,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K27">
         <v>0.4729064039408867</v>
@@ -4445,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K30">
         <v>0.4545454545454545</v>
@@ -4495,7 +4495,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K31">
         <v>0.453125</v>
@@ -4545,7 +4545,7 @@
         <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K32">
         <v>0.4421052631578947</v>
@@ -4595,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K33">
         <v>0.4409937888198758</v>
@@ -4645,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K34">
         <v>0.4385964912280702</v>
@@ -4695,7 +4695,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K35">
         <v>0.4375</v>
@@ -4745,7 +4745,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K36">
         <v>0.4285714285714285</v>
@@ -4845,7 +4845,7 @@
         <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K38">
         <v>0.425531914893617</v>
@@ -4995,7 +4995,7 @@
         <v>36</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K41">
         <v>0.4090909090909091</v>
@@ -5095,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K43">
         <v>0.3950617283950617</v>
@@ -5195,7 +5195,7 @@
         <v>29</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K45">
         <v>0.3925619834710744</v>
@@ -5595,7 +5595,7 @@
         <v>12</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K53">
         <v>0.3661971830985916</v>
@@ -5845,7 +5845,7 @@
         <v>4</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K58">
         <v>0.35</v>
@@ -5895,7 +5895,7 @@
         <v>4</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K59">
         <v>0.3490566037735849</v>
@@ -5945,7 +5945,7 @@
         <v>4</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K60">
         <v>0.3478260869565217</v>
@@ -6495,7 +6495,7 @@
         <v>22</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K71">
         <v>0.3312101910828025</v>
@@ -6524,28 +6524,28 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1846153846153846</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="E72">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F72">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K72">
         <v>0.3240740740740741</v>
@@ -6574,28 +6574,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K73">
         <v>0.3178294573643411</v>
@@ -6627,10 +6627,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>283</v>
@@ -6677,10 +6677,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>284</v>
@@ -6724,13 +6724,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6742,10 +6742,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K76">
         <v>0.3138686131386861</v>
@@ -6774,13 +6774,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>285</v>
@@ -6845,7 +6845,7 @@
         <v>6</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K78">
         <v>0.310077519379845</v>
@@ -6877,22 +6877,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>286</v>
@@ -6927,22 +6927,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E80">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F80">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>287</v>
@@ -6980,16 +6980,16 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>6</v>
@@ -7024,13 +7024,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>289</v>
@@ -7074,25 +7074,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1333333333333333</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>290</v>
@@ -7124,28 +7124,28 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.131578947368421</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D84">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="E84">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K84">
         <v>0.2955832389580974</v>
@@ -7174,25 +7174,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>291</v>
@@ -7224,13 +7224,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1275167785234899</v>
+        <v>0.125</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>292</v>
@@ -7277,10 +7277,10 @@
         <v>0.125</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K87">
         <v>0.2934782608695652</v>
@@ -7327,10 +7327,10 @@
         <v>0.125</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7342,10 +7342,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K88">
         <v>0.2916666666666667</v>
@@ -7374,25 +7374,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>293</v>
@@ -7424,25 +7424,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.125</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>294</v>
@@ -7474,25 +7474,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F91">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>295</v>
@@ -7524,25 +7524,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1157894736842105</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C92">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="E92">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="F92">
-        <v>0.05000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>296</v>
@@ -7574,25 +7574,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>297</v>
@@ -7624,25 +7624,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94">
         <v>9</v>
-      </c>
-      <c r="E94">
-        <v>0.78</v>
-      </c>
-      <c r="F94">
-        <v>0.22</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>17</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>298</v>
@@ -7674,25 +7674,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>299</v>
@@ -7724,25 +7724,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>300</v>
@@ -7774,28 +7774,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K97">
         <v>0.2818181818181818</v>
@@ -7824,25 +7824,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>301</v>
@@ -7874,28 +7874,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.09090909090909091</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>309</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K99">
         <v>0.28125</v>
@@ -7924,28 +7924,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K100">
         <v>0.28</v>
@@ -7974,25 +7974,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.08641975308641975</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>302</v>
@@ -8024,25 +8024,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="F102">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>303</v>
@@ -8074,13 +8074,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -8092,10 +8092,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K103">
         <v>0.273972602739726</v>
@@ -8124,25 +8124,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>304</v>
@@ -8177,25 +8177,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105">
         <v>3</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K105">
         <v>0.2708333333333333</v>
@@ -8230,22 +8230,22 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>12</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K106">
         <v>0.2676056338028169</v>
@@ -8280,16 +8280,16 @@
         <v>2</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>24</v>
@@ -8330,13 +8330,13 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F108">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -8374,25 +8374,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>307</v>
@@ -8424,28 +8424,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E110">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="F110">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K110">
         <v>0.2638436482084691</v>
@@ -8480,13 +8480,13 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E111">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F111">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -8524,28 +8524,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K112">
         <v>0.2631578947368421</v>
@@ -8574,25 +8574,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F113">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>309</v>
@@ -8630,22 +8630,22 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
         <v>14</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K114">
         <v>0.2580645161290323</v>
@@ -8680,13 +8680,13 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E115">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F115">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
@@ -8730,22 +8730,22 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>14</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K116">
         <v>0.2570921985815603</v>
@@ -8774,28 +8774,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K117">
         <v>0.2529411764705882</v>
@@ -8824,7 +8824,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>311</v>
@@ -8877,25 +8877,25 @@
         <v>0.0625</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K119">
         <v>0.25</v>
@@ -8927,22 +8927,22 @@
         <v>0.0625</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>312</v>
@@ -8974,25 +8974,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F121">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>313</v>
@@ -9024,25 +9024,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>314</v>
@@ -9074,25 +9074,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>315</v>
@@ -9124,7 +9124,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9142,10 +9142,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K124">
         <v>0.25</v>
@@ -9180,16 +9180,16 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>17</v>
@@ -9224,25 +9224,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.05555555555555555</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>317</v>
@@ -9274,25 +9274,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.05555555555555555</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="E127">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F127">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>318</v>
@@ -9324,25 +9324,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.05319148936170213</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>55</v>
@@ -9374,25 +9374,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.05309734513274336</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="E129">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F129">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>319</v>
@@ -9427,10 +9427,10 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -9442,10 +9442,10 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K130">
         <v>0.242152466367713</v>
@@ -9474,25 +9474,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E131">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F131">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>320</v>
@@ -9524,28 +9524,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.05263157894736842</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K132">
         <v>0.24</v>
@@ -9574,28 +9574,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05194805194805195</v>
+        <v>0.05</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K133">
         <v>0.2352941176470588</v>
@@ -9624,25 +9624,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05084745762711865</v>
+        <v>0.05</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="F134">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>321</v>
@@ -9674,28 +9674,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K135">
         <v>0.2307692307692308</v>
@@ -9724,25 +9724,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E136">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F136">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>322</v>
@@ -9774,25 +9774,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F137">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>323</v>
@@ -9824,25 +9824,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F138">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>324</v>
@@ -9880,13 +9880,13 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E139">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F139">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
@@ -9930,13 +9930,13 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E140">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F140">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -9974,13 +9974,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D141">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="E141">
         <v>0.95</v>
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>327</v>
@@ -10024,25 +10024,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>328</v>
@@ -10074,25 +10074,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F143">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>329</v>
@@ -10124,25 +10124,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.04347826086956522</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>330</v>
@@ -10174,28 +10174,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0425531914893617</v>
+        <v>0.04</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K145">
         <v>0.2222222222222222</v>
@@ -10224,28 +10224,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04081632653061224</v>
+        <v>0.04</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F146">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K146">
         <v>0.2222222222222222</v>
@@ -10277,22 +10277,22 @@
         <v>0.04</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>331</v>
@@ -10324,25 +10324,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F148">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>332</v>
@@ -10374,25 +10374,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F149">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>333</v>
@@ -10424,25 +10424,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.03846153846153846</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E150">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F150">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>334</v>
@@ -10474,25 +10474,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>335</v>
@@ -10524,28 +10524,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.03773584905660377</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E152">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F152">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K152">
         <v>0.2218045112781955</v>
@@ -10574,28 +10574,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K153">
         <v>0.2153846153846154</v>
@@ -10624,28 +10624,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K154">
         <v>0.2153846153846154</v>
@@ -10674,25 +10674,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E155">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F155">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>336</v>
@@ -10724,28 +10724,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.03571428571428571</v>
+        <v>0.03422053231939164</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K156">
         <v>0.2142857142857143</v>
@@ -10774,25 +10774,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F157">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>337</v>
@@ -10824,25 +10824,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.03422053231939164</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C158">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="E158">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F158">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>338</v>
@@ -10874,25 +10874,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>339</v>
@@ -10924,28 +10924,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E160">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F160">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K160">
         <v>0.2075471698113208</v>
@@ -10980,13 +10980,13 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E161">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F161">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
@@ -11024,25 +11024,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>341</v>
@@ -11074,25 +11074,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.03125</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F163">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>342</v>
@@ -11124,25 +11124,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>343</v>
@@ -11174,25 +11174,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E165">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F165">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>344</v>
@@ -11224,25 +11224,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E166">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>345</v>
@@ -11280,13 +11280,13 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F167">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
@@ -11330,13 +11330,13 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E168">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F168">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
@@ -11374,28 +11374,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E169">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F169">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K169">
         <v>0.2</v>
@@ -11424,25 +11424,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E170">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F170">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>348</v>
@@ -11480,16 +11480,16 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>36</v>
@@ -11524,25 +11524,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F172">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>350</v>
@@ -11574,7 +11574,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>351</v>
@@ -11624,25 +11624,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F174">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>352</v>
@@ -11674,25 +11674,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>353</v>
@@ -11730,13 +11730,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -11774,25 +11774,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.025</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E177">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F177">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>355</v>
@@ -11824,25 +11824,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E178">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F178">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>356</v>
@@ -11874,25 +11874,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02469135802469136</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E179">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F179">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>357</v>
@@ -11924,28 +11924,28 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E180">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F180">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K180">
         <v>0.2</v>
@@ -11974,25 +11974,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E181">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F181">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>358</v>
@@ -12024,28 +12024,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E182">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F182">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K182">
         <v>0.1948051948051948</v>
@@ -12080,13 +12080,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -12124,25 +12124,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
       <c r="D184">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E184">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F184">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>360</v>
@@ -12174,25 +12174,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02222222222222222</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>361</v>
@@ -12224,25 +12224,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E186">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F186">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>362</v>
@@ -12274,25 +12274,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02150537634408602</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>363</v>
@@ -12327,25 +12327,25 @@
         <v>0.02127659574468085</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E188">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F188">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K188">
         <v>0.1904761904761905</v>
@@ -12374,25 +12374,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>364</v>
@@ -12424,25 +12424,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E190">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="F190">
-        <v>0.04000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>365</v>
@@ -12474,28 +12474,28 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F191">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K191">
         <v>0.1902071563088512</v>
@@ -12524,28 +12524,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F192">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K192">
         <v>0.1890243902439024</v>
@@ -12574,25 +12574,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E193">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F193">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>366</v>
@@ -12624,25 +12624,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F194">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>367</v>
@@ -12674,25 +12674,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>368</v>
@@ -12724,25 +12724,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>369</v>
@@ -12774,28 +12774,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K197">
         <v>0.1842105263157895</v>
@@ -12824,25 +12824,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.01923076923076923</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F198">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>370</v>
@@ -12874,25 +12874,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E199">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F199">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>371</v>
@@ -12924,25 +12924,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.01869158878504673</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
+        <v>22</v>
+      </c>
+      <c r="E200">
+        <v>0.95</v>
+      </c>
+      <c r="F200">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200">
         <v>54</v>
-      </c>
-      <c r="E200">
-        <v>0.96</v>
-      </c>
-      <c r="F200">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200">
-        <v>105</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>372</v>
@@ -12974,25 +12974,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>373</v>
@@ -13024,25 +13024,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.01818181818181818</v>
+        <v>0.01742160278745645</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D202">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="E202">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F202">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>374</v>
@@ -13074,25 +13074,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01785714285714286</v>
+        <v>0.01737756714060032</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>55</v>
+        <v>622</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>375</v>
@@ -13124,25 +13124,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01742160278745645</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="E204">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F204">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>376</v>
@@ -13174,25 +13174,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01737756714060032</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C205">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="E205">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F205">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>622</v>
+        <v>62</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>377</v>
@@ -13224,25 +13224,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01666666666666667</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E206">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F206">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>378</v>
@@ -13274,25 +13274,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01587301587301587</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E207">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F207">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>379</v>
@@ -13324,28 +13324,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01538461538461539</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E208">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F208">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K208">
         <v>0.1766040181464679</v>
@@ -13374,13 +13374,13 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01492537313432836</v>
+        <v>0.01374570446735395</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E209">
         <v>0.9</v>
@@ -13392,10 +13392,10 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K209">
         <v>0.1764705882352941</v>
@@ -13424,25 +13424,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01470588235294118</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F210">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>380</v>
@@ -13474,28 +13474,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01374570446735395</v>
+        <v>0.01313868613138686</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D211">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>287</v>
+        <v>676</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K211">
         <v>0.1739130434782609</v>
@@ -13524,25 +13524,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01333333333333333</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E212">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F212">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>381</v>
@@ -13574,25 +13574,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01313868613138686</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
         <v>9</v>
       </c>
-      <c r="D213">
-        <v>225</v>
-      </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>676</v>
+        <v>77</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>382</v>
@@ -13624,25 +13624,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01298701298701299</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E214">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F214">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>383</v>
@@ -13674,25 +13674,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01282051282051282</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E215">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="F215">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>384</v>
@@ -13724,25 +13724,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01257861635220126</v>
+        <v>0.01092581943645773</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D216">
-        <v>28</v>
+        <v>423</v>
       </c>
       <c r="E216">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F216">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>157</v>
+        <v>1720</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>385</v>
@@ -13774,25 +13774,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01234567901234568</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="E217">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F217">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>386</v>
@@ -13824,25 +13824,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01092581943645773</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C218">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>423</v>
+        <v>3</v>
       </c>
       <c r="E218">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F218">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>1720</v>
+        <v>98</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>387</v>
@@ -13874,25 +13874,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01075268817204301</v>
+        <v>0.01</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F219">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>388</v>
@@ -13924,25 +13924,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0101010101010101</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F220">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>389</v>
@@ -13974,25 +13974,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E221">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F221">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>390</v>
@@ -14024,25 +14024,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.009523809523809525</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E222">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F222">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>391</v>
@@ -14074,25 +14074,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.009523809523809525</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E223">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F223">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>392</v>
@@ -14124,25 +14124,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.009345794392523364</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F224">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>393</v>
@@ -14174,25 +14174,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.00909090909090909</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D225">
-        <v>19</v>
+        <v>566</v>
       </c>
       <c r="E225">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F225">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>109</v>
+        <v>2541</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>394</v>
@@ -14224,25 +14224,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.008547008547008548</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E226">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F226">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>395</v>
@@ -14274,25 +14274,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.00819672131147541</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C227">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>566</v>
+        <v>32</v>
       </c>
       <c r="E227">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F227">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>2541</v>
+        <v>133</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>396</v>
@@ -14324,25 +14324,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.008064516129032258</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E228">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F228">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>397</v>
@@ -14374,25 +14374,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.007462686567164179</v>
+        <v>0.007109004739336493</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D229">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="E229">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F229">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>133</v>
+        <v>419</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>398</v>
@@ -14424,25 +14424,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.007246376811594203</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="E230">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F230">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>399</v>
@@ -14474,25 +14474,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.007109004739336493</v>
+        <v>0.00625</v>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="E231">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F231">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>419</v>
+        <v>159</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>400</v>
@@ -14524,25 +14524,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.006756756756756757</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>401</v>
@@ -14574,25 +14574,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.00625</v>
+        <v>0.005361930294906166</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>402</v>
@@ -14624,25 +14624,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.006024096385542169</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>165</v>
+        <v>589</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>403</v>
@@ -14674,25 +14674,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.005361930294906166</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>371</v>
+        <v>205</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>404</v>
@@ -14724,25 +14724,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.005067567567567568</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="C236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E236">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F236">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>589</v>
+        <v>207</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>405</v>
@@ -14774,25 +14774,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.004854368932038835</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F237">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>406</v>
@@ -14824,25 +14824,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.004807692307692308</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E238">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F238">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>407</v>
@@ -14874,25 +14874,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.004484304932735426</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>408</v>
@@ -14924,25 +14924,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.004405286343612335</v>
+        <v>0.003745318352059925</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E240">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F240">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>409</v>
@@ -14974,28 +14974,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.003968253968253968</v>
+        <v>0.003157894736842105</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>251</v>
+        <v>947</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K241">
         <v>0.1639344262295082</v>
@@ -15024,28 +15024,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.003745318352059925</v>
+        <v>0.002666666666666667</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D242">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E242">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F242">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>266</v>
+        <v>1122</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K242">
         <v>0.16</v>
@@ -15074,25 +15074,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.003157894736842105</v>
+        <v>0.001222493887530562</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E243">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F243">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>947</v>
+        <v>817</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>410</v>
@@ -15124,28 +15124,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002666666666666667</v>
+        <v>0.0009868421052631579</v>
       </c>
       <c r="C244">
         <v>3</v>
       </c>
       <c r="D244">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="E244">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F244">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>1122</v>
+        <v>3037</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K244">
         <v>0.1595092024539877</v>
@@ -15170,30 +15170,6 @@
       </c>
     </row>
     <row r="245" spans="1:17">
-      <c r="A245" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245">
-        <v>0.001222493887530562</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245">
-        <v>50</v>
-      </c>
-      <c r="E245">
-        <v>0.98</v>
-      </c>
-      <c r="F245">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245">
-        <v>817</v>
-      </c>
       <c r="J245" s="1" t="s">
         <v>411</v>
       </c>
@@ -15220,30 +15196,6 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0.0009868421052631579</v>
-      </c>
-      <c r="C246">
-        <v>3</v>
-      </c>
-      <c r="D246">
-        <v>164</v>
-      </c>
-      <c r="E246">
-        <v>0.98</v>
-      </c>
-      <c r="F246">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246">
-        <v>3037</v>
-      </c>
       <c r="J246" s="1" t="s">
         <v>412</v>
       </c>
@@ -15271,7 +15223,7 @@
     </row>
     <row r="247" spans="1:17">
       <c r="J247" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K247">
         <v>0.1538461538461539</v>
@@ -15479,7 +15431,7 @@
     </row>
     <row r="255" spans="1:17">
       <c r="J255" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K255">
         <v>0.1463414634146341</v>
@@ -15557,7 +15509,7 @@
     </row>
     <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K258">
         <v>0.1454545454545454</v>
@@ -15583,7 +15535,7 @@
     </row>
     <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K259">
         <v>0.1451612903225807</v>
@@ -15739,7 +15691,7 @@
     </row>
     <row r="265" spans="10:17">
       <c r="J265" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K265">
         <v>0.1428571428571428</v>
@@ -15843,7 +15795,7 @@
     </row>
     <row r="269" spans="10:17">
       <c r="J269" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K269">
         <v>0.1428571428571428</v>
@@ -16259,7 +16211,7 @@
     </row>
     <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K285">
         <v>0.1420765027322404</v>
@@ -16285,7 +16237,7 @@
     </row>
     <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K286">
         <v>0.1417322834645669</v>
@@ -16363,7 +16315,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K289">
         <v>0.1388888888888889</v>
@@ -16389,7 +16341,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K290">
         <v>0.1363636363636364</v>
@@ -16571,7 +16523,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K297">
         <v>0.1333333333333333</v>
@@ -16675,7 +16627,7 @@
     </row>
     <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K301">
         <v>0.1313559322033898</v>
@@ -16831,7 +16783,7 @@
     </row>
     <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K307">
         <v>0.1272727272727273</v>
@@ -17663,7 +17615,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K339">
         <v>0.1214953271028037</v>
@@ -17767,7 +17719,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K343">
         <v>0.12</v>
@@ -18001,7 +17953,7 @@
     </row>
     <row r="352" spans="10:17">
       <c r="J352" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K352">
         <v>0.1132075471698113</v>
@@ -18027,7 +17979,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K353">
         <v>0.1114551083591331</v>
@@ -18443,7 +18395,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K369">
         <v>0.1111111111111111</v>
@@ -18625,7 +18577,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K376">
         <v>0.1111111111111111</v>
@@ -19145,7 +19097,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K396">
         <v>0.1021897810218978</v>
@@ -19431,7 +19383,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K407">
         <v>0.1</v>
@@ -19821,7 +19773,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K422">
         <v>0.09411764705882353</v>
@@ -19873,7 +19825,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K424">
         <v>0.09090909090909091</v>
@@ -19977,7 +19929,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K428">
         <v>0.09090909090909091</v>
@@ -20029,7 +19981,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K430">
         <v>0.09090909090909091</v>
@@ -20575,7 +20527,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K451">
         <v>0.08964451313755796</v>
@@ -20679,7 +20631,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K455">
         <v>0.08695652173913043</v>
@@ -21303,7 +21255,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K479">
         <v>0.07936507936507936</v>
@@ -21615,7 +21567,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K491">
         <v>0.07692307692307693</v>
@@ -21823,7 +21775,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K499">
         <v>0.07476635514018691</v>
@@ -21849,7 +21801,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K500">
         <v>0.07407407407407407</v>
@@ -22421,7 +22373,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K522">
         <v>0.07017543859649122</v>
@@ -22733,7 +22685,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K534">
         <v>0.06666666666666667</v>
@@ -23019,7 +22971,7 @@
     </row>
     <row r="545" spans="10:17">
       <c r="J545" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K545">
         <v>0.06382978723404255</v>
@@ -23721,7 +23673,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K572">
         <v>0.05658198614318707</v>
@@ -24033,7 +23985,7 @@
     </row>
     <row r="584" spans="10:17">
       <c r="J584" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K584">
         <v>0.05405405405405406</v>
@@ -24345,7 +24297,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K596">
         <v>0.05128205128205128</v>
@@ -24423,7 +24375,7 @@
     </row>
     <row r="599" spans="10:17">
       <c r="J599" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K599">
         <v>0.05034396497811132</v>
@@ -24449,7 +24401,7 @@
     </row>
     <row r="600" spans="10:17">
       <c r="J600" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K600">
         <v>0.05</v>
@@ -24709,7 +24661,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K610">
         <v>0.04838709677419355</v>
@@ -25749,7 +25701,7 @@
     </row>
     <row r="650" spans="10:17">
       <c r="J650" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K650">
         <v>0.04</v>
@@ -26009,7 +25961,7 @@
     </row>
     <row r="660" spans="10:17">
       <c r="J660" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K660">
         <v>0.03571428571428571</v>
@@ -26347,7 +26299,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K673">
         <v>0.03125</v>
@@ -26451,7 +26403,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K677">
         <v>0.0310880829015544</v>
@@ -26789,7 +26741,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K690">
         <v>0.02898550724637681</v>
@@ -26815,7 +26767,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K691">
         <v>0.02857142857142857</v>
@@ -27283,7 +27235,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K709">
         <v>0.025</v>
@@ -27777,7 +27729,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K728">
         <v>0.02127659574468085</v>
@@ -27803,7 +27755,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K729">
         <v>0.02127659574468085</v>
@@ -27855,7 +27807,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K731">
         <v>0.02040816326530612</v>
@@ -27881,7 +27833,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K732">
         <v>0.02</v>
@@ -27985,7 +27937,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K736">
         <v>0.01865284974093264</v>
@@ -28011,7 +27963,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K737">
         <v>0.01769911504424779</v>
@@ -28427,7 +28379,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K753">
         <v>0.01333333333333333</v>
@@ -28635,7 +28587,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K761">
         <v>0.009523809523809525</v>
